--- a/results_repeated_boost_ensemble/data_1_1year_all_leagues_medias_metricas.xlsx
+++ b/results_repeated_boost_ensemble/data_1_1year_all_leagues_medias_metricas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,176 +473,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>AdaBoost_DT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5461008542298154</v>
+        <v>0.5262055662717002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5334993226161566</v>
+        <v>0.5181028315816618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5613078913227901</v>
+        <v>0.545804830557052</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5334993226161566</v>
+        <v>0.5181028315816618</v>
       </c>
       <c r="F2" t="n">
-        <v>0.538160080752595</v>
+        <v>0.5261224198378424</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7329566802531129</v>
+        <v>0.7074944777236117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5251749793331497</v>
+        <v>0.5744282171397079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5116170309797547</v>
+        <v>0.5708852536904334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5464576244906562</v>
+        <v>0.587001413214742</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5116170309797547</v>
+        <v>0.5708852536904334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5184693926358124</v>
+        <v>0.575691613761274</v>
       </c>
       <c r="G3" t="n">
-        <v>0.706626671687502</v>
+        <v>0.7562428004317808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GaussianNB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5083714521906861</v>
+        <v>0.4654450261780105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5106712063499492</v>
+        <v>0.5007975542356453</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5233068057947797</v>
+        <v>0.5049959453486798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5106712063499492</v>
+        <v>0.5007975542356453</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5098987748115538</v>
+        <v>0.4647969197967924</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6912362133780993</v>
+        <v>0.7024349043705168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5388040782584734</v>
+        <v>0.5083714521906861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5302709041716753</v>
+        <v>0.5106712063499492</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5580900442863806</v>
+        <v>0.5233068057947798</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5302709041716753</v>
+        <v>0.5106712063499492</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5356107339202729</v>
+        <v>0.5098987748115538</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7257725869715838</v>
+        <v>0.6912362133780993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GaussianNB</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4654450261780105</v>
+        <v>0.5251749793331497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5007975542356453</v>
+        <v>0.5116170309797547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5049959453486798</v>
+        <v>0.5464576244906562</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5007975542356453</v>
+        <v>0.5116170309797547</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4647969197967924</v>
+        <v>0.5184693926358124</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7024349043705168</v>
+        <v>0.706626671687502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AdaBoost_DT</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5262055662717001</v>
+        <v>0.5461008542298154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5181028315816618</v>
+        <v>0.5334993226161566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5458048305570519</v>
+        <v>0.5613078913227901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5181028315816618</v>
+        <v>0.5334993226161566</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5261224198378424</v>
+        <v>0.538160080752595</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7074944777236117</v>
+        <v>0.7329566802531129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5388040782584734</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5302709041716753</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5580900442863806</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5302709041716753</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5356107339202729</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7257725869715836</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.5660402314687241</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.5635537028727775</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.5764699099778002</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>0.5635537028727775</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>0.567710951273334</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.7477168763594334</v>
+      <c r="G9" t="n">
+        <v>0.7477168763594333</v>
       </c>
     </row>
   </sheetData>
